--- a/result/gr50_03_simulated/details.xlsx
+++ b/result/gr50_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5288598537445068</v>
+        <v>0.3769309520721436</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1345.080062565674</v>
+        <v>1347.237095632645</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08272076652683347</v>
+        <v>0.07990143729468036</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06654688782519501</v>
+        <v>0.05998581805288029</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05257694960435035</v>
+        <v>0.04830954899111276</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04359824425517674</v>
+        <v>0.04120592795978379</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03724201670915642</v>
+        <v>0.03753394998839247</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03488300750898157</v>
+        <v>0.03449438307065888</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03270200897565457</v>
+        <v>0.03198355730771082</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03116699165635197</v>
+        <v>0.03073307284517923</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0296417146056679</v>
+        <v>0.03001980329602668</v>
       </c>
       <c r="O2" t="n">
-        <v>0.028217430173206</v>
+        <v>0.02845043430031038</v>
       </c>
       <c r="P2" t="n">
-        <v>0.028217430173206</v>
+        <v>0.02825971302474251</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02745570636278925</v>
+        <v>0.02763909695204155</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02729351985037637</v>
+        <v>0.02740726987440697</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02700333262873304</v>
+        <v>0.02710509825171897</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02688203516552895</v>
+        <v>0.02673387925186966</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0265089711696611</v>
+        <v>0.02656260428749077</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02636953340093885</v>
+        <v>0.02654760814120844</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02636953340093885</v>
+        <v>0.026415875730339</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02624661670883876</v>
+        <v>0.02630171111493943</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02621988426053945</v>
+        <v>0.02626193168874551</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.510420560836792</v>
+        <v>0.3906493186950684</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1369.943756986591</v>
+        <v>1377.17140992205</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07494032331970016</v>
+        <v>0.0812924136272716</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05762096697938718</v>
+        <v>0.05540204592206265</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04672209817062048</v>
+        <v>0.04843824428125919</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04250513032993349</v>
+        <v>0.04120704785610278</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03968068453144023</v>
+        <v>0.03538787365383474</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03570295355597795</v>
+        <v>0.03165305124293578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03382801210108231</v>
+        <v>0.03038526235115781</v>
       </c>
       <c r="M3" t="n">
-        <v>0.031827625796445</v>
+        <v>0.02967211946265438</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03071057593556955</v>
+        <v>0.02892570186047997</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03022682853180365</v>
+        <v>0.02849763790545108</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02883025904287309</v>
+        <v>0.02844728464591295</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02836185998382863</v>
+        <v>0.02808828639060565</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02790505585519552</v>
+        <v>0.02785642323902855</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02719193520634847</v>
+        <v>0.02752835968763482</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02719193520634847</v>
+        <v>0.02740285697124642</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02706581237664692</v>
+        <v>0.02714033014888262</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02692693418826079</v>
+        <v>0.02701369664808484</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02683925196743703</v>
+        <v>0.02696351456726834</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02679746437862275</v>
+        <v>0.02689671090913399</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02670455666640528</v>
+        <v>0.02684544658717445</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3972430229187012</v>
+        <v>0.3749992847442627</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1394.097260717821</v>
+        <v>1382.896236002034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08460908685586954</v>
+        <v>0.08542942239929553</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06370267674388613</v>
+        <v>0.06420201572211295</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04958668170757415</v>
+        <v>0.05306851940032535</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04243100290399114</v>
+        <v>0.04313612718351405</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03872169276161076</v>
+        <v>0.03860979666464206</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03451749507746446</v>
+        <v>0.03546097305629935</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03377865433817747</v>
+        <v>0.03416837276371454</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03193575837112671</v>
+        <v>0.03238261866954559</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03109174862348362</v>
+        <v>0.0304731099026484</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02990163440511964</v>
+        <v>0.02998770616879475</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02904119015070702</v>
+        <v>0.02868310103030666</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02882623802431415</v>
+        <v>0.02842361082705329</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02841776043700587</v>
+        <v>0.02827547796889425</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02810693814718644</v>
+        <v>0.02793726000656008</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02773712303740314</v>
+        <v>0.02756289970988156</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02753530084478737</v>
+        <v>0.02733678333022713</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0274561570569816</v>
+        <v>0.02720202100293223</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02731922299364714</v>
+        <v>0.02712972721020769</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02720181604888907</v>
+        <v>0.02697496256656123</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02717538519917779</v>
+        <v>0.02695704163746655</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3824341297149658</v>
+        <v>0.3906257152557373</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1370.052767420788</v>
+        <v>1393.067061104086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08086228936427477</v>
+        <v>0.08271636652101659</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06252961943468517</v>
+        <v>0.06110280391988943</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05329530806316408</v>
+        <v>0.05115583417926205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04487535141908663</v>
+        <v>0.04045364637849877</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03935547983111707</v>
+        <v>0.03836414959639275</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03731588515906022</v>
+        <v>0.03563850534883382</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03414985602449078</v>
+        <v>0.0336870162979081</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03336148458803135</v>
+        <v>0.03219659842881561</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03112341039901745</v>
+        <v>0.03071759968470434</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02941339701820465</v>
+        <v>0.02939913602080153</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02932444475009995</v>
+        <v>0.02923734832254393</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02806103533228391</v>
+        <v>0.02850009791000295</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02784135887697069</v>
+        <v>0.02816624457430384</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02736897261204297</v>
+        <v>0.0278790850031571</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02727885067139807</v>
+        <v>0.02765985566322388</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02693065375925958</v>
+        <v>0.02746112650607684</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02692087073352325</v>
+        <v>0.02731408970998918</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02677867731974263</v>
+        <v>0.02721501677417059</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02675528481408497</v>
+        <v>0.02721501677417059</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02670668162613621</v>
+        <v>0.02715530333536229</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3930106163024902</v>
+        <v>0.3593754768371582</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1428.455235239227</v>
+        <v>1431.706987464699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08441965156470795</v>
+        <v>0.07943900346020213</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06218924190226674</v>
+        <v>0.06195005432273458</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04433184516516918</v>
+        <v>0.05087821700165437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04340741517499816</v>
+        <v>0.0427661908408841</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03919511467844233</v>
+        <v>0.03872280387127989</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03627938622629086</v>
+        <v>0.03770659284998746</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03400800391956938</v>
+        <v>0.03580434846694183</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03254561212661981</v>
+        <v>0.03335192709016408</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03144261999415371</v>
+        <v>0.03220677249516021</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03016676533795136</v>
+        <v>0.03115543324507835</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02993602737713093</v>
+        <v>0.03030140548679953</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02936856577412042</v>
+        <v>0.02945433427796103</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02914923081274257</v>
+        <v>0.02907497991934088</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02877631298374426</v>
+        <v>0.02883561533040013</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02852239210223637</v>
+        <v>0.02856283294367909</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02837634707609408</v>
+        <v>0.0283839278519208</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02803533472982097</v>
+        <v>0.02829167092707771</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02791376543286118</v>
+        <v>0.02811511437820352</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02785589930780022</v>
+        <v>0.02802708863142551</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.027845131291213</v>
+        <v>0.02790851827416566</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4169950485229492</v>
+        <v>0.3437490463256836</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1343.962230750729</v>
+        <v>1369.960297288419</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07642951067089344</v>
+        <v>0.08281630118676042</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05778134016238787</v>
+        <v>0.06310120016123695</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04690590539770943</v>
+        <v>0.04877147537067913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04054691230157789</v>
+        <v>0.0404463178672678</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03576475266452044</v>
+        <v>0.03649245753140582</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03333191102162531</v>
+        <v>0.03533139673662399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03290937894155131</v>
+        <v>0.03329537517395878</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0303261033773681</v>
+        <v>0.03054936022941621</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02934512318523295</v>
+        <v>0.03054936022941621</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02901451150209628</v>
+        <v>0.03010387775616501</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02789962254794682</v>
+        <v>0.02900586672357407</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02760315204711379</v>
+        <v>0.02808189832182107</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02714696657172666</v>
+        <v>0.02798620676274356</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02705233259389719</v>
+        <v>0.02753059442850906</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02673337040723616</v>
+        <v>0.02730587612062468</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02655620666372955</v>
+        <v>0.02704636813314557</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02640904385063099</v>
+        <v>0.02684934245587985</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02636498353498378</v>
+        <v>0.02680168157363776</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02622251655265462</v>
+        <v>0.02672766441269286</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02619809416668087</v>
+        <v>0.02670487908944285</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4218766689300537</v>
+        <v>0.4689059257507324</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1341.234698258873</v>
+        <v>1409.193635213785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08422761936937397</v>
+        <v>0.08572550220393098</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06437924331654721</v>
+        <v>0.06729260996533787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05125533110708906</v>
+        <v>0.05164888787419662</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04012219334134064</v>
+        <v>0.04461442785045112</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03828308655417314</v>
+        <v>0.03865988244582446</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03542900185908503</v>
+        <v>0.03588476873420547</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03359899767685298</v>
+        <v>0.0349581328547425</v>
       </c>
       <c r="M8" t="n">
-        <v>0.031467080780805</v>
+        <v>0.03278610943029901</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03046134500454659</v>
+        <v>0.03160274479877817</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02959756097386231</v>
+        <v>0.03055635371021232</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02784862617198469</v>
+        <v>0.02972506607393667</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02766657901706433</v>
+        <v>0.0290174326721278</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02707589509055053</v>
+        <v>0.02866173125254625</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0268352597432409</v>
+        <v>0.02815457976925432</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02656543794360605</v>
+        <v>0.02801755087028648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02645642493177524</v>
+        <v>0.02784030086663525</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02628767244334312</v>
+        <v>0.02781025993275956</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02623319828001755</v>
+        <v>0.02764438487261324</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02614492589198583</v>
+        <v>0.02752310726111899</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02614492589198583</v>
+        <v>0.02746966150514201</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4062783718109131</v>
+        <v>0.3908798694610596</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1445.242705338645</v>
+        <v>1387.295921304925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08231456643726366</v>
+        <v>0.07784680508602365</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06234997033516631</v>
+        <v>0.06058814863156797</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0479399182055397</v>
+        <v>0.0450321306319223</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04301084900653642</v>
+        <v>0.04268102327037445</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03866041795125354</v>
+        <v>0.03903990008380216</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03704274338775735</v>
+        <v>0.03621739522642124</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03476028455057392</v>
+        <v>0.03343755680031001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03246288941936399</v>
+        <v>0.03214033575496013</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03192035556362336</v>
+        <v>0.03050814135246261</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03116349932020228</v>
+        <v>0.02970045231989474</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03047870664243144</v>
+        <v>0.02913429069755801</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0300243458037657</v>
+        <v>0.02868588405855576</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02943976557160287</v>
+        <v>0.0283956661321633</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02924408380158801</v>
+        <v>0.0279229800916227</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02901699859998795</v>
+        <v>0.0276609110058631</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02857776506326961</v>
+        <v>0.02756295481537359</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02850720321227333</v>
+        <v>0.02740226741505533</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02839951526478193</v>
+        <v>0.02729885741190023</v>
       </c>
       <c r="X9" t="n">
-        <v>0.028261921021797</v>
+        <v>0.02717102357719404</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02817237242375527</v>
+        <v>0.02704280548352681</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3780765533447266</v>
+        <v>0.3906130790710449</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1418.573025102634</v>
+        <v>1401.230195101383</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07663699177192346</v>
+        <v>0.07697621201859635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05598029235388267</v>
+        <v>0.05859850658574604</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04796161168873583</v>
+        <v>0.04569061782630148</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04120036794023346</v>
+        <v>0.04275387805777491</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03810889929545333</v>
+        <v>0.03792906906406411</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03462363692083819</v>
+        <v>0.03418956519495158</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03240397046542311</v>
+        <v>0.03289130925226277</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03190892749934464</v>
+        <v>0.03068617172477781</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03119939978015506</v>
+        <v>0.03040480819569876</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03063943265950377</v>
+        <v>0.02960525000453131</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02977736124441626</v>
+        <v>0.02855234238838184</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02922062435162862</v>
+        <v>0.02855234238838184</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02853904333853796</v>
+        <v>0.02817458382754375</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02832468350125817</v>
+        <v>0.0281038054175167</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02816015502466368</v>
+        <v>0.02784279183076844</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02794152623831813</v>
+        <v>0.02754603518044946</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02782616464620121</v>
+        <v>0.02744625102593914</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02777075516926734</v>
+        <v>0.02739874074850982</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02766364351805135</v>
+        <v>0.02731898906485605</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02765249561603575</v>
+        <v>0.02731442875441293</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4898502826690674</v>
+        <v>0.3905973434448242</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1440.469225937</v>
+        <v>1429.323035413876</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08053923259783255</v>
+        <v>0.07756075925181811</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06363482235790911</v>
+        <v>0.06197917387669797</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04585709198803798</v>
+        <v>0.04586465237267182</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04060442844709464</v>
+        <v>0.04123770663513738</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03825658594065975</v>
+        <v>0.03837676293553268</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03480175190016405</v>
+        <v>0.03506266786025974</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03363458682260773</v>
+        <v>0.03243094082775808</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03271621210159117</v>
+        <v>0.0314899222932583</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03142158318886648</v>
+        <v>0.03066729472098168</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03081886476728101</v>
+        <v>0.02976738634013497</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02989281348573331</v>
+        <v>0.02941722932503209</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02973934131252367</v>
+        <v>0.02925862352390542</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02925609155872639</v>
+        <v>0.02871195139957207</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02908847739985819</v>
+        <v>0.02845125183356308</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02871709942014892</v>
+        <v>0.02842757783225973</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02850477057980894</v>
+        <v>0.02824068325066394</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02843140016473132</v>
+        <v>0.02806691951606621</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02815779238298366</v>
+        <v>0.02796480686813367</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02811228820107336</v>
+        <v>0.02789520339224082</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02807932214302144</v>
+        <v>0.02786204747395469</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_03_simulated/details.xlsx
+++ b/result/gr50_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3769309520721436</v>
+        <v>0.7799968719482422</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1347.237095632645</v>
+        <v>1095.783988649098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07990143729468036</v>
+        <v>0.06209605675574132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05998581805288029</v>
+        <v>0.04444679389226319</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04830954899111276</v>
+        <v>0.03781111209987692</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04120592795978379</v>
+        <v>0.03228484000150536</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03753394998839247</v>
+        <v>0.02988204431794883</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03449438307065888</v>
+        <v>0.02715927593703929</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03198355730771082</v>
+        <v>0.02616427191177966</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03073307284517923</v>
+        <v>0.02458161152219122</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03001980329602668</v>
+        <v>0.02311344715861738</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02845043430031038</v>
+        <v>0.02295280704897289</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02825971302474251</v>
+        <v>0.02184812553522507</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02763909695204155</v>
+        <v>0.02184812553522507</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02740726987440697</v>
+        <v>0.02184812553522507</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02710509825171897</v>
+        <v>0.02184812553522507</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02673387925186966</v>
+        <v>0.0216235132688433</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02656260428749077</v>
+        <v>0.0216235132688433</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02654760814120844</v>
+        <v>0.02144527603329724</v>
       </c>
       <c r="W2" t="n">
-        <v>0.026415875730339</v>
+        <v>0.02140713464867345</v>
       </c>
       <c r="X2" t="n">
-        <v>0.02630171111493943</v>
+        <v>0.02137493487443794</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02626193168874551</v>
+        <v>0.02136031166957306</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3906493186950684</v>
+        <v>0.699998140335083</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1377.17140992205</v>
+        <v>1091.927398875259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0812924136272716</v>
+        <v>0.0630556718683309</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05540204592206265</v>
+        <v>0.04592129906679353</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04843824428125919</v>
+        <v>0.03469268956972425</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04120704785610278</v>
+        <v>0.03229567441405932</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03538787365383474</v>
+        <v>0.02860913943704322</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03165305124293578</v>
+        <v>0.02674055548079961</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03038526235115781</v>
+        <v>0.02580615760969677</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02967211946265438</v>
+        <v>0.02446133727127513</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02892570186047997</v>
+        <v>0.02425656279078497</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02849763790545108</v>
+        <v>0.02337533115624447</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02844728464591295</v>
+        <v>0.02337533115624447</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02808828639060565</v>
+        <v>0.0233407253966823</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02785642323902855</v>
+        <v>0.02200599556437013</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02752835968763482</v>
+        <v>0.02200599556437013</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02740285697124642</v>
+        <v>0.02193398224591377</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02714033014888262</v>
+        <v>0.02193398224591377</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02701369664808484</v>
+        <v>0.02164551619027143</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02696351456726834</v>
+        <v>0.0212851344809992</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02689671090913399</v>
+        <v>0.0212851344809992</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02684544658717445</v>
+        <v>0.0212851344809992</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3749992847442627</v>
+        <v>0.7010025978088379</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1382.896236002034</v>
+        <v>1167.282008417462</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08542942239929553</v>
+        <v>0.06065856373672367</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06420201572211295</v>
+        <v>0.04471597018877559</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05306851940032535</v>
+        <v>0.03777756807659313</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04313612718351405</v>
+        <v>0.03290402458334895</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03860979666464206</v>
+        <v>0.03086538355026833</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03546097305629935</v>
+        <v>0.02876788314372378</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03416837276371454</v>
+        <v>0.02677525690960798</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03238261866954559</v>
+        <v>0.02603924891308698</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0304731099026484</v>
+        <v>0.02504577590697768</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02998770616879475</v>
+        <v>0.02389409206935945</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02868310103030666</v>
+        <v>0.02389409206935945</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02842361082705329</v>
+        <v>0.02389409206935945</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02827547796889425</v>
+        <v>0.0236822047155036</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02793726000656008</v>
+        <v>0.02355368333869444</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02756289970988156</v>
+        <v>0.02316355808123921</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02733678333022713</v>
+        <v>0.02314860349709712</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02720202100293223</v>
+        <v>0.02284697242839967</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02712972721020769</v>
+        <v>0.02284697242839967</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02697496256656123</v>
+        <v>0.02282340691226473</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02695704163746655</v>
+        <v>0.02275403525180237</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3906257152557373</v>
+        <v>0.7739944458007812</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1393.067061104086</v>
+        <v>1146.45400172902</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08271636652101659</v>
+        <v>0.06547067673107672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06110280391988943</v>
+        <v>0.04934709161591286</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05115583417926205</v>
+        <v>0.04006777310888992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04045364637849877</v>
+        <v>0.03687434548044861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03836414959639275</v>
+        <v>0.03099272781391694</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03563850534883382</v>
+        <v>0.02896291592900091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0336870162979081</v>
+        <v>0.02689687722120588</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03219659842881561</v>
+        <v>0.0261289944452383</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03071759968470434</v>
+        <v>0.02469076320935572</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02939913602080153</v>
+        <v>0.02469076320935572</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02923734832254393</v>
+        <v>0.02456202772746407</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02850009791000295</v>
+        <v>0.02393282578671791</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02816624457430384</v>
+        <v>0.0235445021335369</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0278790850031571</v>
+        <v>0.02333978513036256</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02765985566322388</v>
+        <v>0.0229249887472257</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02746112650607684</v>
+        <v>0.0228269150425391</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02731408970998918</v>
+        <v>0.02277296506224588</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02721501677417059</v>
+        <v>0.02264102343314251</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02721501677417059</v>
+        <v>0.02242234111638487</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02715530333536229</v>
+        <v>0.02234803122278791</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3593754768371582</v>
+        <v>0.754997730255127</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1431.706987464699</v>
+        <v>1055.601810166045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07943900346020213</v>
+        <v>0.06262306869582172</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06195005432273458</v>
+        <v>0.04491817338467746</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05087821700165437</v>
+        <v>0.03854453593921026</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0427661908408841</v>
+        <v>0.03479276141217992</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03872280387127989</v>
+        <v>0.03027172918842988</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03770659284998746</v>
+        <v>0.0274735465781626</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03580434846694183</v>
+        <v>0.0264044878525281</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03335192709016408</v>
+        <v>0.02552265932413967</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03220677249516021</v>
+        <v>0.02373297848475171</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03115543324507835</v>
+        <v>0.0226141400971253</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03030140548679953</v>
+        <v>0.0226141400971253</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02945433427796103</v>
+        <v>0.02245607166364165</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02907497991934088</v>
+        <v>0.02201749529668413</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02883561533040013</v>
+        <v>0.02164458726976945</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02856283294367909</v>
+        <v>0.0208334589023506</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0283839278519208</v>
+        <v>0.0208334589023506</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02829167092707771</v>
+        <v>0.02068458618210488</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02811511437820352</v>
+        <v>0.02068458618210488</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02802708863142551</v>
+        <v>0.02057779566033666</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02790851827416566</v>
+        <v>0.02057703333657007</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3437490463256836</v>
+        <v>0.7050409317016602</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1369.960297288419</v>
+        <v>1107.713103692309</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08281630118676042</v>
+        <v>0.06197420643632718</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06310120016123695</v>
+        <v>0.04376011311779698</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04877147537067913</v>
+        <v>0.03999598845296207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0404463178672678</v>
+        <v>0.031577154673315</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03649245753140582</v>
+        <v>0.02982723773808174</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03533139673662399</v>
+        <v>0.02781028102945483</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03329537517395878</v>
+        <v>0.02735011738089303</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03054936022941621</v>
+        <v>0.02577747209232614</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03054936022941621</v>
+        <v>0.02490054530726134</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03010387775616501</v>
+        <v>0.02393746215941415</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02900586672357407</v>
+        <v>0.02323579351555687</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02808189832182107</v>
+        <v>0.02300725094401265</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02798620676274356</v>
+        <v>0.02280070719718902</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02753059442850906</v>
+        <v>0.02268847321221036</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02730587612062468</v>
+        <v>0.02268847321221036</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02704636813314557</v>
+        <v>0.02230882000453971</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02684934245587985</v>
+        <v>0.02205522715834128</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02680168157363776</v>
+        <v>0.02194641725348693</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02672766441269286</v>
+        <v>0.02173077753957404</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02670487908944285</v>
+        <v>0.02159284802519121</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4689059257507324</v>
+        <v>0.7409617900848389</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1409.193635213785</v>
+        <v>1144.653912324813</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08572550220393098</v>
+        <v>0.06055767099792104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06729260996533787</v>
+        <v>0.04627093779875122</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05164888787419662</v>
+        <v>0.04014663360471366</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04461442785045112</v>
+        <v>0.03463111624609938</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03865988244582446</v>
+        <v>0.0319246799991795</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03588476873420547</v>
+        <v>0.0304195850695074</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0349581328547425</v>
+        <v>0.0291056603370582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03278610943029901</v>
+        <v>0.02686866013514362</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03160274479877817</v>
+        <v>0.02543500233102915</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03055635371021232</v>
+        <v>0.0248454306520004</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02972506607393667</v>
+        <v>0.02451107969441342</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0290174326721278</v>
+        <v>0.02387227938586449</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02866173125254625</v>
+        <v>0.02321299492791523</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02815457976925432</v>
+        <v>0.02311721282459537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02801755087028648</v>
+        <v>0.0225396573475062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02784030086663525</v>
+        <v>0.0225396573475062</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02781025993275956</v>
+        <v>0.0225396573475062</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02764438487261324</v>
+        <v>0.02242196606264447</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02752310726111899</v>
+        <v>0.02237036141632104</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02746966150514201</v>
+        <v>0.0223129417607176</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3908798694610596</v>
+        <v>0.7840027809143066</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1387.295921304925</v>
+        <v>1108.541484884439</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07784680508602365</v>
+        <v>0.06151579842035126</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06058814863156797</v>
+        <v>0.04552087913755756</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0450321306319223</v>
+        <v>0.03518479785350093</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04268102327037445</v>
+        <v>0.0317608377021031</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03903990008380216</v>
+        <v>0.02891781259409814</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03621739522642124</v>
+        <v>0.02746889438109408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03343755680031001</v>
+        <v>0.02523148348914845</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03214033575496013</v>
+        <v>0.02523148348914845</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03050814135246261</v>
+        <v>0.02468181657887227</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02970045231989474</v>
+        <v>0.02403640635484982</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02913429069755801</v>
+        <v>0.02367451369416748</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02868588405855576</v>
+        <v>0.02272281363205516</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0283956661321633</v>
+        <v>0.02272281363205516</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0279229800916227</v>
+        <v>0.02262501465404992</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0276609110058631</v>
+        <v>0.022427279189855</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02756295481537359</v>
+        <v>0.02216858258821053</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02740226741505533</v>
+        <v>0.02196600433015844</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02729885741190023</v>
+        <v>0.02180714500354845</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02717102357719404</v>
+        <v>0.02165182074066428</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02704280548352681</v>
+        <v>0.02160899580671421</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3906130790710449</v>
+        <v>0.7139980792999268</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1401.230195101383</v>
+        <v>1058.103226300167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07697621201859635</v>
+        <v>0.06151636816357051</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05859850658574604</v>
+        <v>0.04407211891806202</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04569061782630148</v>
+        <v>0.03804203689454911</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04275387805777491</v>
+        <v>0.03344441370197019</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03792906906406411</v>
+        <v>0.02956204483274667</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03418956519495158</v>
+        <v>0.0290459607246605</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03289130925226277</v>
+        <v>0.02647577374843785</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03068617172477781</v>
+        <v>0.02489441558537952</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03040480819569876</v>
+        <v>0.02489441558537952</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02960525000453131</v>
+        <v>0.02334800208243291</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02855234238838184</v>
+        <v>0.02259697272682696</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02855234238838184</v>
+        <v>0.02221402025732742</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02817458382754375</v>
+        <v>0.02185108513856289</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0281038054175167</v>
+        <v>0.02133289316651324</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02784279183076844</v>
+        <v>0.02133289316651324</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02754603518044946</v>
+        <v>0.02099481858006461</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02744625102593914</v>
+        <v>0.02099481858006461</v>
       </c>
       <c r="W10" t="n">
-        <v>0.02739874074850982</v>
+        <v>0.02092331083508847</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02731898906485605</v>
+        <v>0.0206918911217712</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.02731442875441293</v>
+        <v>0.02062579388499351</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3905973434448242</v>
+        <v>0.6939990520477295</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1429.323035413876</v>
+        <v>1068.888232259978</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07756075925181811</v>
+        <v>0.0628823000715748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06197917387669797</v>
+        <v>0.05145934003302075</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04586465237267182</v>
+        <v>0.03867223923643547</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04123770663513738</v>
+        <v>0.03447745482925521</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03837676293553268</v>
+        <v>0.02955501028024562</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03506266786025974</v>
+        <v>0.02712016958365799</v>
       </c>
       <c r="L11" t="n">
-        <v>0.03243094082775808</v>
+        <v>0.0247689457158031</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0314899222932583</v>
+        <v>0.0247689457158031</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03066729472098168</v>
+        <v>0.02407480745971677</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02976738634013497</v>
+        <v>0.02288523610028501</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02941722932503209</v>
+        <v>0.02284272842364613</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02925862352390542</v>
+        <v>0.02244444093605468</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02871195139957207</v>
+        <v>0.02190627752422604</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02845125183356308</v>
+        <v>0.02190627752422604</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02842757783225973</v>
+        <v>0.02166007130199268</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02824068325066394</v>
+        <v>0.02127498524119347</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02806691951606621</v>
+        <v>0.02127498524119347</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02796480686813367</v>
+        <v>0.02106115400611442</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02789520339224082</v>
+        <v>0.02103624107515012</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02786204747395469</v>
+        <v>0.02083602791929782</v>
       </c>
     </row>
   </sheetData>
